--- a/data/asg/ENG_actividades-final.xlsx
+++ b/data/asg/ENG_actividades-final.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agonzalez/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E797391-2F00-A14F-B409-A23AC99FBB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2114DC-CAF8-9146-AEBF-BEB11294078F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="7420" windowWidth="22280" windowHeight="16440" xr2:uid="{39FCC503-01C8-9D49-82C1-E350B33F20FA}"/>
+    <workbookView xWindow="0" yWindow="3420" windowWidth="20720" windowHeight="16740" xr2:uid="{39FCC503-01C8-9D49-82C1-E350B33F20FA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Listado de actividades" sheetId="1" r:id="rId1"/>
+    <sheet name="Actividades Relev Ambiental" sheetId="2" r:id="rId2"/>
+    <sheet name="Actividades Relev Social" sheetId="3" r:id="rId3"/>
+    <sheet name="Actividades Relev Corporativas" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="708">
   <si>
     <t>Categoría</t>
   </si>
@@ -131,9 +134,6 @@
     <t>https://planigrupo.com.mx/wp-content/uploads/2023/03/sillas-1.png</t>
   </si>
   <si>
-    <t>Dontation State Women´s Institute</t>
-  </si>
-  <si>
     <t>A donation was made at Mall Plaza Lincoln, consisting of chairs and tables. This will be part of the furniture for the next children's toy library, within the Institute's facilities.</t>
   </si>
   <si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>The delivery of toys that were collected with the DIF alliance of Santa Catarina and Alianza Anticáncer was carried out.</t>
-  </si>
-  <si>
-    <t>Support for the ALLIANCE ANTICANCER Foundation</t>
   </si>
   <si>
     <t>April</t>
@@ -483,9 +480,6 @@
     <t>On May 13, 2021, the donation of 25 tables and 100 chairs was made for the Casa Hogar dining room.</t>
   </si>
   <si>
-    <t>"Furniture donation to 'Casa Hogar Manos de Amor por Bahía."</t>
-  </si>
-  <si>
     <t>https://youtu.be/1amRLbbwt2s</t>
   </si>
   <si>
@@ -499,9 +493,6 @@
   </si>
   <si>
     <t>Collection centers to support the recent forest fires in the Sierra de Arteaga Coahuila and Santiago Nuevo León.</t>
-  </si>
-  <si>
-    <t>Forest Fire Collection Centers in Sierra de Arteaga.</t>
   </si>
   <si>
     <t>Women's Day 2021</t>
@@ -1310,9 +1301,6 @@
     <t>Donation of protective masks</t>
   </si>
   <si>
-    <t>Donation of protective masks to the Municipality of Zapopan, Jalisco</t>
-  </si>
-  <si>
     <t>We thank all the officials and health personnel for their excellent work carried out day by day in this contingency. Therefore, PLANIGRUPO supports with the donation of 2,100 masks that are useful for the protection of the officers of the municipality of Zapopan who are on the streets every day and are at high risk of contagion. With this we join in providing them with greater protection so that they continue to carry out their activities and avoid contagions.
 These were delivered by our Director General to the police station staff and to the municipal president of Zapopan Pablo Lemus.</t>
   </si>
@@ -1320,9 +1308,6 @@
     <t>We thank all the officials and health personnel for their excellent work carried out day by day in this contingency.</t>
   </si>
   <si>
-    <t>Ignition of the pines in all the squares</t>
-  </si>
-  <si>
     <t>The lighting of the Christmas Pine of the Commercial Squares is considered as the most important event of the year and start of the Christmas shopping, where it is sought to increase the influx and generate entertainment experiences for our final customer.</t>
   </si>
   <si>
@@ -1339,16 +1324,7 @@
     <t>On December 1, 2019, the Planigrupo-Santa Catarina race was held in conjunction with the government of Santa Catarina, NL.</t>
   </si>
   <si>
-    <t>Grand Casting Academy</t>
-  </si>
-  <si>
     <t>Together with TV AZTECA, the great casting of the academy in Macroplaza Estado and Macroplaza Oaxaca was held as official headquarters. Where family life was promoted.</t>
-  </si>
-  <si>
-    <t>Grand Casting Academy 2019</t>
-  </si>
-  <si>
-    <t>Culinary Festival Live Tradition</t>
   </si>
   <si>
     <t>An event of a mixture of cultural activities such as music, dance, catrine contest, dance, folkloric ballet of catrinas painting workshop, organic market and handicrafts, typical meals etc.</t>
@@ -1409,9 +1385,6 @@
     <t xml:space="preserve">Planigrupo received recognition from The ABP World Values ​​Meeting. </t>
   </si>
   <si>
-    <t>Planigroup As a Compassionate Company</t>
-  </si>
-  <si>
     <t>On October 12, 2019, the Committee XI World Values ​​Meeting awarded to the Architect Karime Garza Serna who is our director of operations the document in which the World Certification is granted to PLANIGRUPO as a Compassionate Company in Nuevo León, Mexico.</t>
   </si>
   <si>
@@ -1620,9 +1593,6 @@
   </si>
   <si>
     <t>He participated in the days for employment, taught by the municipal presidency.</t>
-  </si>
-  <si>
-    <t>Separation of garbage and law prohibiting the use of straws and plastic bags</t>
   </si>
   <si>
     <t>. The law prohibiting the use of straws and plastic bags was implemented. April 2019
@@ -1842,9 +1812,6 @@
     <t>He was offered space to Fusion Arts School for his dance exhibition as an element of expression for young people.</t>
   </si>
   <si>
-    <t>World Autism Day and Hepatitis Information and Detection Program</t>
-  </si>
-  <si>
     <t>1. On April 2, 2019, there was the presence of the CAM garden Guaycura school, a school dedicated to attending children with autism. About 100 children attended with their family.
 2. Program in conjunction with the Rotary club, free tests were carried out to detect hepatitis and information was provided.</t>
   </si>
@@ -2085,6 +2052,169 @@
   </si>
   <si>
     <t>Colectivo Ambiental Isla Verde asked us to join their appliance recycling campaign in our shopping center.</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>IMAGEN</t>
+  </si>
+  <si>
+    <t>relevantes/ambiental_botellas.png</t>
+  </si>
+  <si>
+    <t>relevantes/ambiental_tapas.png</t>
+  </si>
+  <si>
+    <t>ASG-Social-3eraEdad.png</t>
+  </si>
+  <si>
+    <t>ASG-social-EspacioMujeres.png</t>
+  </si>
+  <si>
+    <t>ASG-Social-TeletonCRIT.png</t>
+  </si>
+  <si>
+    <t>ASG-Social-ayuda-JovenesCancer.png</t>
+  </si>
+  <si>
+    <t>Recycling of 3.2 tons of plastic in Santa Catarina, Garza Sada, and Plaza Real Saltillo through recycling machines, resulting in a reduction of 56 tons of CO2 emissions over the past 12 months."</t>
+  </si>
+  <si>
+    <t>Approximately 11 tons of bottle caps collected, equivalent to 19 tons of CO2 emissions avoided in the last 14 months."</t>
+  </si>
+  <si>
+    <t>At Paseo Santa Catarina, Mall Plaza Lincoln, Urban Village Garza Sada, and Plaza Bella Anáhuac, activities such as music and dances performed by senior citizens, INAPAM card processing, conferences, courses, and the sale of artisanal products took place.</t>
+  </si>
+  <si>
+    <t>In Santa Catarina, spaces were adapted where women were selling products made by them to promote economic independence</t>
+  </si>
+  <si>
+    <t>We contribute to the quality medical care and rehabilitation for the girls and boys of Teletón CRIT Coahuila.</t>
+  </si>
+  <si>
+    <t>We assist children and young people with limited economic resources who have cancer through the Alianza Anticancer Infantil foundation by collecting toys and bottle caps (PET).</t>
+  </si>
+  <si>
+    <t>Recognition to CiudadelaUV for the PET bottle cap bank.</t>
+  </si>
+  <si>
+    <t>Collection of bottle caps for children with cancer.</t>
+  </si>
+  <si>
+    <t>Lighting up the pines in all the squares</t>
+  </si>
+  <si>
+    <t>Planigrupo as a compassionate company</t>
+  </si>
+  <si>
+    <t>Live tradition cultural festival</t>
+  </si>
+  <si>
+    <t>Point orange Santa Catarina</t>
+  </si>
+  <si>
+    <t>Dontation state women´s institute</t>
+  </si>
+  <si>
+    <t>Christmas tree lighting 2022 at our shopping centers.</t>
+  </si>
+  <si>
+    <t>Bottle caps bank  January-July 2022</t>
+  </si>
+  <si>
+    <t>Recycling machines-AlEn</t>
+  </si>
+  <si>
+    <t>Lilo foundation alliance</t>
+  </si>
+  <si>
+    <t>Support for the ALLIANCE ANTICANCER foundation</t>
+  </si>
+  <si>
+    <t>Pink Hearts in collaboration with grupo AlEn</t>
+  </si>
+  <si>
+    <t>Official sponsors of reciclatón 2021 Teletón foundation</t>
+  </si>
+  <si>
+    <t>Bottle caps bank  February 2022</t>
+  </si>
+  <si>
+    <t>Donation on Grandparents day</t>
+  </si>
+  <si>
+    <t>Bottle caps bank July 2021</t>
+  </si>
+  <si>
+    <t>"Furniture donation to "Casa Hogar Manos de Amor por Bahía."</t>
+  </si>
+  <si>
+    <t>Forest fire collection centers in Sierra de Arteaga.</t>
+  </si>
+  <si>
+    <t>Donation of materials to fundación Hélice</t>
+  </si>
+  <si>
+    <t>Alen group Alliance</t>
+  </si>
+  <si>
+    <t>Tapitas bank alliance</t>
+  </si>
+  <si>
+    <t>The World's largest school</t>
+  </si>
+  <si>
+    <t>Christmas trees lighting 2020</t>
+  </si>
+  <si>
+    <t>Donation of protective masks to the municipality of Zapopan, Jalisco</t>
+  </si>
+  <si>
+    <t>Planigrupo - Santa Catarina Race</t>
+  </si>
+  <si>
+    <t>Great casting for "La Academia" 2019</t>
+  </si>
+  <si>
+    <t>Planting compassion for you and for the Planet</t>
+  </si>
+  <si>
+    <t>Replacing Luminaire Fixtures</t>
+  </si>
+  <si>
+    <t>Collection and support for flood victims</t>
+  </si>
+  <si>
+    <t>Collection center, Plaza Universidad</t>
+  </si>
+  <si>
+    <t>Collection center, UV</t>
+  </si>
+  <si>
+    <t>Separation of garbage,  Law prohibiting the use of straws and plastic bags</t>
+  </si>
+  <si>
+    <t>Mexican Red Cross campaigns</t>
+  </si>
+  <si>
+    <t>Luminaire change, Cancún Gran Plaza</t>
+  </si>
+  <si>
+    <t>Taekwondo Belt Change for Students</t>
+  </si>
+  <si>
+    <t>Transition to LED Lamps and Cardboard Collection Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+World Autism Day,  Informational Program and Hepatitis Detection</t>
+  </si>
+  <si>
+    <t>Lighting of the Christmas Tree and Celebration of Rosca de Reyes Day</t>
+  </si>
+  <si>
+    <t>1st UNIDOS Race 2018 and 2019</t>
   </si>
 </sst>
 </file>
@@ -2240,7 +2370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2296,11 +2426,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2618,13 +2751,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1606C8D6-270D-3640-9D20-05F5B336FAAF}">
   <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L115" zoomScale="89" workbookViewId="0">
-      <selection activeCell="M127" sqref="M127"/>
+    <sheetView tabSelected="1" topLeftCell="L27" zoomScale="89" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="100.5" customWidth="1"/>
     <col min="3" max="3" width="27.1640625" customWidth="1"/>
     <col min="4" max="6" width="10.83203125" style="20"/>
     <col min="10" max="10" width="81.6640625" customWidth="1"/>
@@ -2643,11 +2776,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2675,7 +2808,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>12</v>
+        <v>673</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>13</v>
@@ -2715,7 +2848,7 @@
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -2749,15 +2882,15 @@
         <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>30</v>
+      <c r="B4" s="25" t="s">
+        <v>674</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>27</v>
@@ -2784,71 +2917,71 @@
         <v>29</v>
       </c>
       <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
         <v>31</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>40</v>
+      <c r="B5" s="8" t="s">
+        <v>675</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="9">
         <v>12</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="20">
         <v>2023</v>
       </c>
       <c r="G5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>39</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
         <v>40</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="D6" s="9">
         <v>19</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="20">
         <v>2022</v>
@@ -2860,36 +2993,36 @@
         <v>1</v>
       </c>
       <c r="I6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>46</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>47</v>
       </c>
-      <c r="L6" t="s">
-        <v>48</v>
-      </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>677</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="9">
         <v>19</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="20">
         <v>2022</v>
@@ -2901,36 +3034,36 @@
         <v>2</v>
       </c>
       <c r="I7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s">
         <v>73</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="L7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="M7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>678</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="16">
         <v>1</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="20">
         <v>2022</v>
@@ -2942,30 +3075,30 @@
         <v>10</v>
       </c>
       <c r="I8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="K8" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
-        <v>82</v>
-      </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>83</v>
+      <c r="B9" s="26" t="s">
+        <v>668</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="16">
         <v>29</v>
@@ -2983,30 +3116,30 @@
         <v>1</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>677</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="16">
         <v>17</v>
@@ -3024,30 +3157,30 @@
         <v>2</v>
       </c>
       <c r="I10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
         <v>85</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>86</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>87</v>
       </c>
-      <c r="L10" t="s">
-        <v>88</v>
-      </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>89</v>
+      <c r="B11" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="16">
         <v>14</v>
@@ -3065,27 +3198,27 @@
         <v>3</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J11" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>91</v>
+      <c r="B12" s="26" t="s">
+        <v>679</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>13</v>
@@ -3094,7 +3227,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F12" s="20">
         <v>2022</v>
@@ -3106,30 +3239,30 @@
         <v>3</v>
       </c>
       <c r="I12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="M12" t="s">
         <v>95</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="L12" t="s">
-        <v>96</v>
-      </c>
-      <c r="M12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>98</v>
+        <v>48</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="9">
         <v>15</v>
@@ -3147,30 +3280,30 @@
         <v>2</v>
       </c>
       <c r="I13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" t="s">
         <v>100</v>
       </c>
-      <c r="J13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" t="s">
-        <v>102</v>
-      </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>105</v>
+      <c r="B14" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="9">
         <v>15</v>
@@ -3188,36 +3321,36 @@
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="J14" t="s">
-        <v>104</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>110</v>
+      <c r="B15" s="26" t="s">
+        <v>680</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="14">
         <v>15</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F15" s="20">
         <v>2021</v>
@@ -3229,36 +3362,36 @@
         <v>2</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" t="s">
         <v>108</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" t="s">
-        <v>112</v>
-      </c>
-      <c r="M15" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>113</v>
+      <c r="B16" s="26" t="s">
+        <v>681</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="14">
         <v>15</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F16" s="20">
         <v>2021</v>
@@ -3270,159 +3403,159 @@
         <v>2</v>
       </c>
       <c r="I16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>116</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="L16" t="s">
-        <v>118</v>
-      </c>
       <c r="M16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>119</v>
+      <c r="B17" s="26" t="s">
+        <v>682</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="14">
         <v>24</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F17" s="20">
         <v>2022</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="K17" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="L17" t="s">
-        <v>125</v>
-      </c>
       <c r="M17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>129</v>
+      <c r="B18" s="26" t="s">
+        <v>683</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="14">
         <v>3</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F18" s="20">
         <v>2021</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" t="s">
         <v>126</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="K18" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" t="s">
+        <v>429</v>
+      </c>
+      <c r="M18" t="s">
         <v>127</v>
-      </c>
-      <c r="J18" t="s">
-        <v>128</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="L18" t="s">
-        <v>438</v>
-      </c>
-      <c r="M18" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>132</v>
+      <c r="B19" s="26" t="s">
+        <v>684</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="20">
         <v>2021</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" t="s">
         <v>133</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="K19" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" t="s">
-        <v>137</v>
-      </c>
       <c r="M19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>143</v>
+      <c r="B20" s="26" t="s">
+        <v>685</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="14">
         <v>27</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F20" s="20">
         <v>2021</v>
@@ -3434,77 +3567,77 @@
         <v>6</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>140</v>
       </c>
-      <c r="K20" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="L20" t="s">
-        <v>142</v>
-      </c>
       <c r="M20" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>149</v>
+        <v>48</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>686</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="14">
         <v>17</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F21" s="20">
         <v>2021</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="L21" t="s">
         <v>145</v>
       </c>
-      <c r="J21" t="s">
-        <v>146</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" t="s">
-        <v>148</v>
-      </c>
       <c r="M21" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>150</v>
+      <c r="B22" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="14">
         <v>17</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F22" s="20">
         <v>2021</v>
@@ -3516,36 +3649,36 @@
         <v>2</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M22" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>388</v>
+      <c r="B23" s="26" t="s">
+        <v>687</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="20">
         <v>8</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F23" s="20">
         <v>2021</v>
@@ -3557,30 +3690,30 @@
         <v>2</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M23" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>393</v>
+      <c r="B24" s="26" t="s">
+        <v>688</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="20">
         <v>4</v>
@@ -3592,36 +3725,36 @@
         <v>2021</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J24" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L24" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M24" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>394</v>
+        <v>76</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>689</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="20">
         <v>4</v>
@@ -3633,36 +3766,36 @@
         <v>2021</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L25" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M25" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>397</v>
+      <c r="B26" s="26" t="s">
+        <v>690</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="20">
         <v>4</v>
@@ -3680,118 +3813,118 @@
         <v>1</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J26" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M26" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>400</v>
+      <c r="B27" s="26" t="s">
+        <v>396</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="20">
         <v>18</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F27" s="20">
         <v>2020</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L27" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M27" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>403</v>
+      <c r="B28" s="26" t="s">
+        <v>691</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="20">
         <v>17</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F28" s="20">
         <v>2020</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J28" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L28" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M28" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>405</v>
+      <c r="B29" s="26" t="s">
+        <v>401</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="20">
         <v>8</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F29" s="20">
         <v>2020</v>
@@ -3803,282 +3936,282 @@
         <v>1</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J29" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L29" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="M29" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>407</v>
+        <v>76</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>403</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="20">
         <v>18</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="20">
         <v>2020</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L30" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M30" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>409</v>
+        <v>76</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>405</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="20">
         <v>18</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" s="20">
         <v>2020</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L31" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>411</v>
+      <c r="B32" s="26" t="s">
+        <v>669</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="20">
         <v>18</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" s="20">
         <v>2020</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J32" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L32" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M32" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>415</v>
+      <c r="B33" s="26" t="s">
+        <v>692</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="20">
         <v>26</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F33" s="20">
         <v>2020</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J33" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L33" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M33" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>418</v>
+      <c r="B34" s="26" t="s">
+        <v>670</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="20">
         <v>13</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F34" s="20">
         <v>2020</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J34" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L34" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M34" t="s">
-        <v>418</v>
+        <v>670</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>421</v>
+      <c r="B35" s="26" t="s">
+        <v>693</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="20">
         <v>13</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F35" s="20">
         <v>2019</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J35" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M35" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>426</v>
+      <c r="B36" s="26" t="s">
+        <v>694</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="20">
         <v>15</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F36" s="20">
         <v>2019</v>
@@ -4090,60 +4223,60 @@
         <v>5</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J36" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="L36" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="M36" t="s">
-        <v>424</v>
+        <v>694</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>427</v>
+      <c r="B37" s="26" t="s">
+        <v>672</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="20">
         <v>15</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F37" s="20">
         <v>2019</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="L37" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="M37" t="s">
-        <v>427</v>
+        <v>672</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="85" x14ac:dyDescent="0.2">
@@ -4151,40 +4284,40 @@
         <v>11</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="20">
         <v>15</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F38" s="20">
         <v>2019</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="L38" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="M38" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4192,40 +4325,40 @@
         <v>11</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="20">
         <v>15</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F39" s="20">
         <v>2019</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J39" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="L39" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="M39" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4233,16 +4366,16 @@
         <v>11</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>444</v>
+        <v>695</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" s="20">
         <v>23</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F40" s="20">
         <v>2019</v>
@@ -4254,19 +4387,19 @@
         <v>2</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="L40" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="M40" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -4274,16 +4407,16 @@
         <v>11</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>447</v>
+        <v>671</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="20">
         <v>12</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F41" s="20">
         <v>2019</v>
@@ -4295,16 +4428,16 @@
         <v>2</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J41" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="L41" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -4312,16 +4445,16 @@
         <v>11</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" s="20">
         <v>2</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F42" s="20">
         <v>2019</v>
@@ -4333,36 +4466,36 @@
         <v>2</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J42" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="L42" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="M42" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>453</v>
+        <v>696</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" s="20">
         <v>2</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F43" s="20">
         <v>2019</v>
@@ -4374,19 +4507,19 @@
         <v>4</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J43" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="L43" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="M43" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -4394,16 +4527,16 @@
         <v>11</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="20">
         <v>2</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F44" s="20">
         <v>2019</v>
@@ -4415,19 +4548,19 @@
         <v>5</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J44" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="L44" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="M44" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4435,16 +4568,16 @@
         <v>11</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" s="20">
         <v>2</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F45" s="20">
         <v>2019</v>
@@ -4456,19 +4589,19 @@
         <v>2</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J45" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="L45" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="M45" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -4476,16 +4609,16 @@
         <v>11</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" s="20">
         <v>30</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F46" s="20">
         <v>2019</v>
@@ -4497,36 +4630,36 @@
         <v>1</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J46" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="M46" s="26" t="s">
-        <v>460</v>
+        <v>451</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47" s="20">
         <v>2</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F47" s="20">
         <v>2019</v>
@@ -4538,36 +4671,36 @@
         <v>1</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="M47" s="26" t="s">
-        <v>462</v>
+        <v>453</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" s="20">
         <v>2</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F48" s="20">
         <v>2019</v>
@@ -4579,36 +4712,36 @@
         <v>2</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J48" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="L48" t="s">
-        <v>466</v>
-      </c>
-      <c r="M48" s="27" t="s">
-        <v>464</v>
+        <v>456</v>
+      </c>
+      <c r="M48" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49" s="20">
         <v>2</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F49" s="20">
         <v>2019</v>
@@ -4620,19 +4753,19 @@
         <v>1</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J49" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="L49" t="s">
-        <v>467</v>
-      </c>
-      <c r="M49" s="27" t="s">
-        <v>453</v>
+        <v>457</v>
+      </c>
+      <c r="M49" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -4640,16 +4773,16 @@
         <v>11</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D50" s="20">
         <v>23</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F50" s="20">
         <v>2019</v>
@@ -4661,19 +4794,19 @@
         <v>1</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J50" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="L50" t="s">
-        <v>470</v>
-      </c>
-      <c r="M50" s="27" t="s">
-        <v>468</v>
+        <v>460</v>
+      </c>
+      <c r="M50" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -4681,16 +4814,16 @@
         <v>11</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D51" s="20">
         <v>30</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F51" s="20">
         <v>2017</v>
@@ -4702,36 +4835,36 @@
         <v>1</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J51" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="L51" t="s">
-        <v>472</v>
-      </c>
-      <c r="M51" s="27" t="s">
-        <v>471</v>
+        <v>462</v>
+      </c>
+      <c r="M51" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D52" s="20">
         <v>2</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F52" s="20">
         <v>2019</v>
@@ -4743,19 +4876,19 @@
         <v>1</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J52" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="L52" t="s">
-        <v>475</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>473</v>
+        <v>465</v>
+      </c>
+      <c r="M52" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4763,16 +4896,16 @@
         <v>11</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53" s="20">
         <v>2</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F53" s="20">
         <v>2018</v>
@@ -4784,36 +4917,36 @@
         <v>1</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J53" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="L53" t="s">
-        <v>478</v>
-      </c>
-      <c r="M53" s="27" t="s">
-        <v>476</v>
+        <v>468</v>
+      </c>
+      <c r="M53" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" s="20">
         <v>2</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F54" s="20">
         <v>2019</v>
@@ -4825,19 +4958,19 @@
         <v>9</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J54" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="L54" t="s">
-        <v>480</v>
-      </c>
-      <c r="M54" s="27" t="s">
-        <v>479</v>
+        <v>470</v>
+      </c>
+      <c r="M54" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -4845,16 +4978,16 @@
         <v>11</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>481</v>
+        <v>697</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55" s="20">
         <v>1</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" s="20">
         <v>2018</v>
@@ -4866,36 +4999,36 @@
         <v>1</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J55" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="L55" t="s">
-        <v>483</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>481</v>
+        <v>473</v>
+      </c>
+      <c r="M55" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="20">
         <v>1</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" s="20">
         <v>2019</v>
@@ -4907,36 +5040,36 @@
         <v>1</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J56" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="L56" t="s">
-        <v>486</v>
-      </c>
-      <c r="M56" s="27" t="s">
-        <v>484</v>
+        <v>476</v>
+      </c>
+      <c r="M56" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D57" s="20">
         <v>1</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" s="20">
         <v>2019</v>
@@ -4948,36 +5081,36 @@
         <v>1</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J57" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="L57" t="s">
-        <v>491</v>
-      </c>
-      <c r="M57" s="27" t="s">
-        <v>487</v>
+        <v>481</v>
+      </c>
+      <c r="M57" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D58" s="20">
         <v>1</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F58" s="20">
         <v>2019</v>
@@ -4989,36 +5122,36 @@
         <v>1</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J58" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="L58" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="M58" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="20">
         <v>1</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F59" s="20">
         <v>2019</v>
@@ -5030,36 +5163,36 @@
         <v>2</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J59" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="L59" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="M59" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D60" s="20">
         <v>1</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F60" s="20">
         <v>2019</v>
@@ -5071,36 +5204,36 @@
         <v>1</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J60" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="L60" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="M60" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61" s="20">
         <v>1</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F61" s="20">
         <v>2017</v>
@@ -5112,19 +5245,19 @@
         <v>6</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J61" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="L61" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="M61" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5132,16 +5265,16 @@
         <v>11</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" s="20">
         <v>1</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F62" s="20">
         <v>2014</v>
@@ -5153,19 +5286,19 @@
         <v>1</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J62" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="L62" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="M62" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5173,16 +5306,16 @@
         <v>11</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D63" s="20">
         <v>31</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" s="20">
         <v>2018</v>
@@ -5194,36 +5327,36 @@
         <v>1</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J63" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="L63" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="M63" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D64" s="20">
         <v>1</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F64" s="20">
         <v>2015</v>
@@ -5235,36 +5368,36 @@
         <v>3</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J64" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="L64" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="M64" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D65" s="20">
         <v>1</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F65" s="20">
         <v>2019</v>
@@ -5276,36 +5409,36 @@
         <v>2</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J65" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="L65" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="M65" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D66" s="20">
         <v>1</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F66" s="20">
         <v>2019</v>
@@ -5317,19 +5450,19 @@
         <v>10</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J66" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="L66" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="M66" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5337,16 +5470,16 @@
         <v>11</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D67" s="20">
         <v>8</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F67" s="20">
         <v>2018</v>
@@ -5358,19 +5491,19 @@
         <v>4</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J67" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="L67" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="M67" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5378,16 +5511,16 @@
         <v>11</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D68" s="20">
         <v>1</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F68" s="20">
         <v>2019</v>
@@ -5399,19 +5532,19 @@
         <v>1</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J68" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="L68" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="M68" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5419,10 +5552,10 @@
         <v>11</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D69" s="20">
         <v>6</v>
@@ -5440,19 +5573,19 @@
         <v>3</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J69" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="L69" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="M69" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5460,16 +5593,16 @@
         <v>11</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>471</v>
+        <v>699</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D70" s="20">
         <v>12</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F70" s="20">
         <v>2017</v>
@@ -5481,19 +5614,19 @@
         <v>1</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J70" s="17" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="L70" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="M70" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5501,16 +5634,16 @@
         <v>11</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>471</v>
+        <v>698</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D71" s="20">
         <v>1</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F71" s="20">
         <v>2017</v>
@@ -5522,19 +5655,19 @@
         <v>2</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J71" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="L71" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="M71" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5542,16 +5675,16 @@
         <v>11</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D72" s="20">
         <v>20</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F72" s="20">
         <v>2019</v>
@@ -5563,36 +5696,36 @@
         <v>3</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J72" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="L72" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="M72" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>518</v>
+        <v>700</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D73" s="20">
         <v>12</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F73" s="20">
         <v>2019</v>
@@ -5604,36 +5737,36 @@
         <v>3</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J73" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="L73" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D74" s="20">
         <v>1</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F74" s="20">
         <v>2019</v>
@@ -5645,36 +5778,36 @@
         <v>8</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J74" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="L74" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="M74" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D75" s="20">
         <v>1</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F75" s="20">
         <v>2019</v>
@@ -5686,36 +5819,36 @@
         <v>3</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J75" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="L75" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="M75" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D76" s="20">
         <v>1</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F76" s="20">
         <v>2019</v>
@@ -5727,19 +5860,19 @@
         <v>2</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="L76" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="M76" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5747,16 +5880,16 @@
         <v>11</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D77" s="20">
         <v>20</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F77" s="20">
         <v>2017</v>
@@ -5768,19 +5901,19 @@
         <v>1</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J77" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="L77" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="M77" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5788,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D78" s="20">
         <v>1</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F78" s="20">
         <v>2019</v>
@@ -5809,19 +5942,19 @@
         <v>3</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J78" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="L78" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="M78" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5829,16 +5962,16 @@
         <v>11</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>537</v>
+        <v>701</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D79" s="20">
         <v>1</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F79" s="20">
         <v>2019</v>
@@ -5850,36 +5983,36 @@
         <v>6</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J79" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="L79" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="M79" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D80" s="20">
         <v>1</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F80" s="20">
         <v>2019</v>
@@ -5891,36 +6024,36 @@
         <v>2</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J80" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="L80" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="M80" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D81" s="20">
         <v>1</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F81" s="20">
         <v>2019</v>
@@ -5932,36 +6065,36 @@
         <v>3</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J81" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="L81" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="M81" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D82" s="20">
         <v>1</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F82" s="20">
         <v>2019</v>
@@ -5973,36 +6106,36 @@
         <v>7</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J82" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="L82" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="M82" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>479</v>
+        <v>702</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D83" s="20">
         <v>1</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F83" s="20">
         <v>2019</v>
@@ -6014,36 +6147,36 @@
         <v>5</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J83" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="L83" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="M83" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D84" s="20">
         <v>1</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F84" s="20">
         <v>2019</v>
@@ -6055,19 +6188,19 @@
         <v>6</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J84" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="L84" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="M84" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -6075,16 +6208,16 @@
         <v>11</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D85" s="20">
         <v>1</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F85" s="20">
         <v>2019</v>
@@ -6096,36 +6229,36 @@
         <v>2</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J85" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="L85" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="M85" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D86" s="20">
         <v>1</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F86" s="20">
         <v>2019</v>
@@ -6137,19 +6270,19 @@
         <v>2</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J86" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="L86" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="M86" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -6157,16 +6290,16 @@
         <v>11</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D87" s="20">
         <v>1</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F87" s="20">
         <v>2019</v>
@@ -6178,19 +6311,19 @@
         <v>4</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J87" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K87" s="11" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="L87" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="M87" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -6198,16 +6331,16 @@
         <v>11</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>557</v>
+        <v>703</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D88" s="20">
         <v>1</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F88" s="20">
         <v>2019</v>
@@ -6219,19 +6352,19 @@
         <v>4</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J88" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K88" s="11" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="L88" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="M88" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -6239,16 +6372,16 @@
         <v>11</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D89" s="20">
         <v>1</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F89" s="20">
         <v>2019</v>
@@ -6260,19 +6393,19 @@
         <v>9</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J89" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="L89" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="M89" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -6280,16 +6413,16 @@
         <v>11</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D90" s="20">
         <v>1</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F90" s="20">
         <v>2019</v>
@@ -6301,19 +6434,19 @@
         <v>9</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J90" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K90" s="11" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="L90" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="M90" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -6321,16 +6454,16 @@
         <v>11</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D91" s="20">
         <v>1</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F91" s="20">
         <v>2019</v>
@@ -6342,36 +6475,36 @@
         <v>4</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J91" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="L91" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="M91" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>568</v>
+        <v>704</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D92" s="20">
         <v>30</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F92" s="20">
         <v>2019</v>
@@ -6383,36 +6516,36 @@
         <v>5</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J92" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="L92" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="M92" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D93" s="20">
         <v>30</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F93" s="20">
         <v>2019</v>
@@ -6424,19 +6557,19 @@
         <v>1</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J93" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="L93" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="M93" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -6444,16 +6577,16 @@
         <v>11</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D94" s="20">
         <v>30</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F94" s="20">
         <v>2019</v>
@@ -6465,19 +6598,19 @@
         <v>7</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J94" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="L94" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="M94" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -6485,16 +6618,16 @@
         <v>11</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D95" s="20">
         <v>30</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F95" s="20">
         <v>2019</v>
@@ -6506,19 +6639,19 @@
         <v>1</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J95" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="L95" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="M95" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -6526,16 +6659,16 @@
         <v>11</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D96" s="20">
         <v>30</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F96" s="20">
         <v>2019</v>
@@ -6547,36 +6680,36 @@
         <v>5</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J96" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="L96" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="M96" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D97" s="20">
         <v>30</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F97" s="20">
         <v>2019</v>
@@ -6588,19 +6721,19 @@
         <v>8</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J97" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="L97" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="M97" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -6608,16 +6741,16 @@
         <v>11</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D98" s="20">
         <v>30</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F98" s="20">
         <v>2019</v>
@@ -6629,36 +6762,36 @@
         <v>2</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J98" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="L98" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="M98" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="26" t="s">
-        <v>587</v>
+      <c r="B99" s="28" t="s">
+        <v>705</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D99" s="20">
         <v>29</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F99" s="20">
         <v>2019</v>
@@ -6670,19 +6803,19 @@
         <v>4</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J99" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="L99" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="M99" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -6690,16 +6823,16 @@
         <v>11</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D100" s="20">
         <v>30</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F100" s="20">
         <v>2018</v>
@@ -6711,19 +6844,19 @@
         <v>2</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J100" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K100" s="11" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="L100" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M100" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -6731,16 +6864,16 @@
         <v>11</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D101" s="20">
         <v>20</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F101" s="20">
         <v>2018</v>
@@ -6752,19 +6885,19 @@
         <v>2</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J101" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="L101" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="M101" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -6772,16 +6905,16 @@
         <v>11</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>597</v>
+        <v>706</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D102" s="20">
         <v>10</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F102" s="20">
         <v>2019</v>
@@ -6793,19 +6926,19 @@
         <v>5</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J102" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="L102" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="M102" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -6813,16 +6946,16 @@
         <v>11</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D103" s="20">
         <v>30</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F103" s="20">
         <v>2019</v>
@@ -6834,19 +6967,19 @@
         <v>3</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J103" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K103" s="11" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="L103" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="M103" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -6854,16 +6987,16 @@
         <v>11</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D104" s="20">
         <v>30</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F104" s="20">
         <v>2019</v>
@@ -6875,19 +7008,19 @@
         <v>3</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J104" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="L104" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="M104" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -6895,16 +7028,16 @@
         <v>11</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D105" s="20">
         <v>10</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F105" s="20">
         <v>2019</v>
@@ -6916,36 +7049,36 @@
         <v>11</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J105" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="L105" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="M105" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D106" s="20">
         <v>30</v>
       </c>
       <c r="E106" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F106" s="20">
         <v>2019</v>
@@ -6957,19 +7090,19 @@
         <v>4</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J106" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K106" s="11" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="L106" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="M106" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -6977,16 +7110,16 @@
         <v>11</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D107" s="20">
         <v>18</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F107" s="20">
         <v>2019</v>
@@ -6998,19 +7131,19 @@
         <v>3</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J107" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K107" s="11" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="L107" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="M107" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -7018,16 +7151,16 @@
         <v>11</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D108" s="20">
         <v>9</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F108" s="20">
         <v>2019</v>
@@ -7039,19 +7172,19 @@
         <v>6</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J108" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K108" s="11" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="L108" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="M108" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -7059,16 +7192,16 @@
         <v>11</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D109" s="20">
         <v>28</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F109" s="20">
         <v>2019</v>
@@ -7080,19 +7213,19 @@
         <v>2</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J109" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K109" s="11" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="L109" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="M109" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -7100,16 +7233,16 @@
         <v>11</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D110" s="20">
         <v>2</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F110" s="20">
         <v>2019</v>
@@ -7121,19 +7254,19 @@
         <v>3</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J110" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K110" s="11" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="L110" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="M110" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -7141,16 +7274,16 @@
         <v>11</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D111" s="20">
         <v>2</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F111" s="20">
         <v>2019</v>
@@ -7162,19 +7295,19 @@
         <v>7</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J111" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K111" s="11" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="L111" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="M111" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -7182,16 +7315,16 @@
         <v>11</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D112" s="20">
         <v>30</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F112" s="20">
         <v>2019</v>
@@ -7203,19 +7336,19 @@
         <v>3</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J112" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K112" s="11" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="L112" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="M112" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -7223,16 +7356,16 @@
         <v>11</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D113" s="20">
         <v>30</v>
       </c>
       <c r="E113" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F113" s="20">
         <v>2019</v>
@@ -7244,19 +7377,19 @@
         <v>4</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J113" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K113" s="11" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="L113" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="M113" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -7264,16 +7397,16 @@
         <v>11</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D114" s="20">
         <v>30</v>
       </c>
       <c r="E114" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F114" s="20">
         <v>2019</v>
@@ -7285,19 +7418,19 @@
         <v>2</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J114" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K114" s="11" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="L114" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="M114" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -7305,16 +7438,16 @@
         <v>11</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D115" s="20">
         <v>27</v>
       </c>
       <c r="E115" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F115" s="20">
         <v>2019</v>
@@ -7326,36 +7459,36 @@
         <v>4</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J115" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K115" s="11" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="L115" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="M115" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D116" s="20">
         <v>27</v>
       </c>
       <c r="E116" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F116" s="20">
         <v>2019</v>
@@ -7367,19 +7500,19 @@
         <v>5</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J116" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K116" s="11" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="L116" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="M116" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -7387,16 +7520,16 @@
         <v>11</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D117" s="20">
         <v>27</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F117" s="20">
         <v>2019</v>
@@ -7408,19 +7541,19 @@
         <v>2</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J117" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K117" s="11" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="L117" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="M117" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -7428,16 +7561,16 @@
         <v>11</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D118" s="20">
         <v>27</v>
       </c>
       <c r="E118" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F118" s="20">
         <v>2019</v>
@@ -7449,19 +7582,19 @@
         <v>3</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J118" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K118" s="11" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="L118" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="M118" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -7469,16 +7602,16 @@
         <v>11</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D119" s="20">
         <v>27</v>
       </c>
       <c r="E119" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F119" s="20">
         <v>2019</v>
@@ -7490,19 +7623,19 @@
         <v>2</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J119" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K119" s="11" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="L119" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="M119" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -7510,40 +7643,40 @@
         <v>11</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D120" s="20">
         <v>19</v>
       </c>
       <c r="E120" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F120" s="20">
         <v>2019</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H120" s="18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J120" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K120" s="11" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="L120" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="M120" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="102" x14ac:dyDescent="0.2">
@@ -7551,40 +7684,40 @@
         <v>11</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D121" s="20">
         <v>19</v>
       </c>
       <c r="E121" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F121" s="20">
         <v>2019</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K121" s="11" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="L121" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="M121" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -7592,40 +7725,40 @@
         <v>11</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D122" s="20">
         <v>19</v>
       </c>
       <c r="E122" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F122" s="20">
         <v>2019</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J122" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K122" s="11" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="L122" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="M122" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -7633,40 +7766,40 @@
         <v>11</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D123" s="20">
         <v>19</v>
       </c>
       <c r="E123" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F123" s="20">
         <v>2019</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J123" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K123" s="11" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="L123" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="M123" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -7674,16 +7807,16 @@
         <v>11</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D124" s="20">
         <v>13</v>
       </c>
       <c r="E124" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F124" s="20">
         <v>2019</v>
@@ -7695,19 +7828,19 @@
         <v>4</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J124" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K124" s="11" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="L124" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="M124" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -7715,16 +7848,16 @@
         <v>11</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>658</v>
+        <v>707</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D125" s="20">
         <v>13</v>
       </c>
       <c r="E125" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F125" s="20">
         <v>2019</v>
@@ -7736,19 +7869,19 @@
         <v>2</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J125" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K125" s="11" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="L125" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="M125" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -7756,16 +7889,16 @@
         <v>11</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D126" s="20">
         <v>13</v>
       </c>
       <c r="E126" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F126" s="20">
         <v>2019</v>
@@ -7777,19 +7910,19 @@
         <v>2</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J126" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K126" s="11" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="L126" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="M126" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -7797,16 +7930,16 @@
         <v>11</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D127" s="20">
         <v>12</v>
       </c>
       <c r="E127" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F127" s="20">
         <v>2019</v>
@@ -7818,19 +7951,19 @@
         <v>4</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J127" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K127" s="11" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="L127" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="M127" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -7993,4 +8126,128 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DAF348-F769-2349-9D28-E8E39BECB1F5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="180.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D0442E-579B-4140-B3B8-E9D966FD1F2B}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="220.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3FCED7-F514-7543-B0E3-16CEBAB6FF8F}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>